--- a/biology/Botanique/Posen_Potato_Festival/Posen_Potato_Festival.xlsx
+++ b/biology/Botanique/Posen_Potato_Festival/Posen_Potato_Festival.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Posen Potato Festival (fête de la pomme de terre de Posen) est une fête locale qui se tient chaque année, au début du mois de mai, depuis plus de cinquante ans, à Posen (Michigan) aux États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le village de Posen, situé dans le comté de Presque Isle dans l'État du Michigan, est fortement marqué par ses racines polonaises, si bien que la « Fête de la pomme de terre de Posen » non seulement a fait de la pomme de terre son thème central, comme beaucoup d'autres fêtes de ce genre, mais présente aussi d'authentiques traditions polonaises, costumes traditionnels, polka, artisanat, etc.
 Le Posen Potato Festival se déroule du vendredi au dimanche, lors du premier week-end suivant la fête du Travail. Il comprend des défilés, des attractions foraines et familiales, des divertissements en public, et des présentations alimentaires, notamment un concours de cuisine de la pomme de terre. La plus célèbre cuisinière de Posen est Beatrice Richard, qui a participé 46 fois au concours.
